--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAAggregated C-A  Diff-in-DiffDAGVAR 2005-12-31 to 2008-09-30.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/CAAggregated C-A  Diff-in-DiffDAGVAR 2005-12-31 to 2008-09-30.xlsx
@@ -31,16 +31,16 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.546**</t>
-  </si>
-  <si>
-    <t>1.055*</t>
-  </si>
-  <si>
-    <t>-0.014</t>
-  </si>
-  <si>
-    <t>0.922**</t>
+    <t>-0.463*</t>
+  </si>
+  <si>
+    <t>1.052*</t>
+  </si>
+  <si>
+    <t>-0.012</t>
+  </si>
+  <si>
+    <t>0.609**</t>
   </si>
 </sst>
 </file>
